--- a/long_template.xlsx
+++ b/long_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindsayhracs/Dropbox/GIVES-21 Map Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E4C7B1-BEDF-DE4C-9008-7FC4394FCF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685481E8-52C0-AF4D-B165-4CD0474FEF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{257BF375-73BF-0142-BA2A-10CEBF3AA970}"/>
+    <workbookView xWindow="-39440" yWindow="-180" windowWidth="28800" windowHeight="16240" xr2:uid="{257BF375-73BF-0142-BA2A-10CEBF3AA970}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>H(I)DI</t>
+  </si>
+  <si>
+    <t>GIT_test</t>
   </si>
 </sst>
 </file>
@@ -499,15 +502,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEAEF46-3205-A041-8DA2-10C81CB7F3C3}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,6 +551,9 @@
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
